--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_2009.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_2009.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>18025.950000000001</t>
+          <t>18025.95</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>1053.5599999999999</t>
+          <t>1053.56</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>40515.510000000002</t>
+          <t>40515.51</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>346.27999999999997</t>
+          <t>346.28</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>90.909999999999997</t>
+          <t>90.91</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>3577.1599999999999</t>
+          <t>3577.16</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>12713.629999999999</t>
+          <t>12713.63</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>171.65000000000001</t>
+          <t>171.65</t>
         </is>
       </c>
       <c r="E29" s="0" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>234.28999999999999</t>
+          <t>234.29</t>
         </is>
       </c>
       <c r="E30" s="0" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>152.56999999999999</t>
+          <t>152.57</t>
         </is>
       </c>
       <c r="E31" s="0" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>437833.46000000002</t>
+          <t>437833.46</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>292004.46000000002</t>
+          <t>292004.46</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>2919.5999999999999</t>
+          <t>2919.6</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>842.49000000000001</t>
+          <t>842.49</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>2862.5100000000002</t>
+          <t>2862.51</t>
         </is>
       </c>
       <c r="E64" s="0" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>33290.480000000003</t>
+          <t>33290.48</t>
         </is>
       </c>
       <c r="E65" s="0" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>1493.9200000000001</t>
+          <t>1493.92</t>
         </is>
       </c>
       <c r="E67" s="0" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>26158.220000000001</t>
+          <t>26158.22</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>8447.3299999999999</t>
+          <t>8447.33</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>55213.260000000002</t>
+          <t>55213.26</t>
         </is>
       </c>
       <c r="E73" s="0" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>529.41999999999996</t>
+          <t>529.42</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>31120.549999999999</t>
+          <t>31120.55</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>70071.679999999993</t>
+          <t>70071.68</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
-          <t>39.090000000000003</t>
+          <t>39.09</t>
         </is>
       </c>
       <c r="E85" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>3948.3499999999999</t>
+          <t>3948.35</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>181850.76000000001</t>
+          <t>181850.76</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>40376.769999999997</t>
+          <t>40376.77</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>11820.799999999999</t>
+          <t>11820.8</t>
         </is>
       </c>
       <c r="E91" s="0" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>26949.110000000001</t>
+          <t>26949.11</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>50700.360000000001</t>
+          <t>50700.36</t>
         </is>
       </c>
       <c r="E96" s="0" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>8891.0699999999997</t>
+          <t>8891.07</t>
         </is>
       </c>
       <c r="E97" s="0" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>1596.1900000000001</t>
+          <t>1596.19</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>49614.849999999999</t>
+          <t>49614.85</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>671565.14000000001</t>
+          <t>671565.14</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>119271.57000000001</t>
+          <t>119271.57</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
-          <t>379286.46999999997</t>
+          <t>379286.47</t>
         </is>
       </c>
       <c r="E140" s="0" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="D143" s="0" t="inlineStr">
         <is>
-          <t>64069.410000000003</t>
+          <t>64069.41</t>
         </is>
       </c>
       <c r="E143" s="0" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D144" s="0" t="inlineStr">
         <is>
-          <t>4434.6300000000001</t>
+          <t>4434.63</t>
         </is>
       </c>
       <c r="E144" s="0" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>22607.369999999999</t>
+          <t>22607.37</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="D149" s="0" t="inlineStr">
         <is>
-          <t>2239.8200000000002</t>
+          <t>2239.82</t>
         </is>
       </c>
       <c r="E149" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>4853965.6200000001</t>
+          <t>4853965.62</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
-          <t>36507.879999999997</t>
+          <t>36507.88</t>
         </is>
       </c>
       <c r="E157" s="0" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D159" s="0" t="inlineStr">
         <is>
-          <t>330856.40999999997</t>
+          <t>330856.41</t>
         </is>
       </c>
       <c r="E159" s="0" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D160" s="0" t="inlineStr">
         <is>
-          <t>33810.639999999999</t>
+          <t>33810.64</t>
         </is>
       </c>
       <c r="E160" s="0" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>258370.48999999999</t>
+          <t>258370.49</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="D163" s="0" t="inlineStr">
         <is>
-          <t>29858.580000000002</t>
+          <t>29858.58</t>
         </is>
       </c>
       <c r="E163" s="0" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="D165" s="0" t="inlineStr">
         <is>
-          <t>11689.049999999999</t>
+          <t>11689.05</t>
         </is>
       </c>
       <c r="E165" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>4659206.2000000002</t>
+          <t>4659206.2</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>2362608.1699999999</t>
+          <t>2362608.17</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D168" s="0" t="inlineStr">
         <is>
-          <t>552228.43000000005</t>
+          <t>552228.43</t>
         </is>
       </c>
       <c r="E168" s="0" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="D169" s="0" t="inlineStr">
         <is>
-          <t>39.869999999999997</t>
+          <t>39.87</t>
         </is>
       </c>
       <c r="E169" s="0" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D170" s="0" t="inlineStr">
         <is>
-          <t>74631.279999999999</t>
+          <t>74631.28</t>
         </is>
       </c>
       <c r="E170" s="0" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D171" s="0" t="inlineStr">
         <is>
-          <t>4242008.5999999996</t>
+          <t>4242008.6</t>
         </is>
       </c>
       <c r="E171" s="0" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D172" s="0" t="inlineStr">
         <is>
-          <t>588888.43999999994</t>
+          <t>588888.44</t>
         </is>
       </c>
       <c r="E172" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D173" s="0" t="inlineStr">
         <is>
-          <t>140658.95999999999</t>
+          <t>140658.96</t>
         </is>
       </c>
       <c r="E173" s="0" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
-          <t>86485.289999999994</t>
+          <t>86485.29</t>
         </is>
       </c>
       <c r="E174" s="0" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D175" s="0" t="inlineStr">
         <is>
-          <t>337101.35999999999</t>
+          <t>337101.36</t>
         </is>
       </c>
       <c r="E175" s="0" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
-          <t>752790.18000000005</t>
+          <t>752790.18</t>
         </is>
       </c>
       <c r="E176" s="0" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="D177" s="0" t="inlineStr">
         <is>
-          <t>62926.650000000001</t>
+          <t>62926.65</t>
         </is>
       </c>
       <c r="E177" s="0" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="D178" s="0" t="inlineStr">
         <is>
-          <t>2699.0300000000002</t>
+          <t>2699.03</t>
         </is>
       </c>
       <c r="E178" s="0" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D180" s="0" t="inlineStr">
         <is>
-          <t>84786.220000000001</t>
+          <t>84786.22</t>
         </is>
       </c>
       <c r="E180" s="0" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>17981.669999999998</t>
+          <t>17981.67</t>
         </is>
       </c>
       <c r="E181" s="0" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>75146.440000000002</t>
+          <t>75146.44</t>
         </is>
       </c>
       <c r="E183" s="0" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>218147.26999999999</t>
+          <t>218147.27</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D185" s="0" t="inlineStr">
         <is>
-          <t>44890.160000000003</t>
+          <t>44890.16</t>
         </is>
       </c>
       <c r="E185" s="0" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>35469.949999999997</t>
+          <t>35469.95</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D189" s="0" t="inlineStr">
         <is>
-          <t>567648.30000000005</t>
+          <t>567648.3</t>
         </is>
       </c>
       <c r="E189" s="0" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>540824.47999999998</t>
+          <t>540824.48</t>
         </is>
       </c>
       <c r="E191" s="0" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="D192" s="0" t="inlineStr">
         <is>
-          <t>8311.5699999999997</t>
+          <t>8311.57</t>
         </is>
       </c>
       <c r="E192" s="0" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D194" s="0" t="inlineStr">
         <is>
-          <t>3131.6300000000001</t>
+          <t>3131.63</t>
         </is>
       </c>
       <c r="E194" s="0" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="D195" s="0" t="inlineStr">
         <is>
-          <t>55.630000000000003</t>
+          <t>55.63</t>
         </is>
       </c>
       <c r="E195" s="0" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D198" s="0" t="inlineStr">
         <is>
-          <t>540.32000000000005</t>
+          <t>540.32</t>
         </is>
       </c>
       <c r="E198" s="0" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="D199" s="0" t="inlineStr">
         <is>
-          <t>90058.050000000003</t>
+          <t>90058.05</t>
         </is>
       </c>
       <c r="E199" s="0" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="D202" s="0" t="inlineStr">
         <is>
-          <t>17.690000000000001</t>
+          <t>17.69</t>
         </is>
       </c>
       <c r="E202" s="0" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D204" s="0" t="inlineStr">
         <is>
-          <t>7498.3299999999999</t>
+          <t>7498.33</t>
         </is>
       </c>
       <c r="E204" s="0" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D206" s="0" t="inlineStr">
         <is>
-          <t>212.55000000000001</t>
+          <t>212.55</t>
         </is>
       </c>
       <c r="E206" s="0" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="D208" s="0" t="inlineStr">
         <is>
-          <t>24159.110000000001</t>
+          <t>24159.11</t>
         </is>
       </c>
       <c r="E208" s="0" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D211" s="0" t="inlineStr">
         <is>
-          <t>7.3200000000000003</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E211" s="0" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="D212" s="0" t="inlineStr">
         <is>
-          <t>13057.959999999999</t>
+          <t>13057.96</t>
         </is>
       </c>
       <c r="E212" s="0" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="D214" s="0" t="inlineStr">
         <is>
-          <t>21248.869999999999</t>
+          <t>21248.87</t>
         </is>
       </c>
       <c r="E214" s="0" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D216" s="0" t="inlineStr">
         <is>
-          <t>77.870000000000005</t>
+          <t>77.87</t>
         </is>
       </c>
       <c r="E216" s="0" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D218" s="0" t="inlineStr">
         <is>
-          <t>188589.51999999999</t>
+          <t>188589.52</t>
         </is>
       </c>
       <c r="E218" s="0" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="D219" s="0" t="inlineStr">
         <is>
-          <t>56650.760000000002</t>
+          <t>56650.76</t>
         </is>
       </c>
       <c r="E219" s="0" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="D220" s="0" t="inlineStr">
         <is>
-          <t>29170.189999999999</t>
+          <t>29170.19</t>
         </is>
       </c>
       <c r="E220" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D221" s="0" t="inlineStr">
         <is>
-          <t>91264.350000000006</t>
+          <t>91264.35</t>
         </is>
       </c>
       <c r="E221" s="0" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="D223" s="0" t="inlineStr">
         <is>
-          <t>52.140000000000001</t>
+          <t>52.14</t>
         </is>
       </c>
       <c r="E223" s="0" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D225" s="0" t="inlineStr">
         <is>
-          <t>352.86000000000001</t>
+          <t>352.86</t>
         </is>
       </c>
       <c r="E225" s="0" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="D228" s="0" t="inlineStr">
         <is>
-          <t>17.289999999999999</t>
+          <t>17.29</t>
         </is>
       </c>
       <c r="E228" s="0" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>124823.57000000001</t>
+          <t>124823.57</t>
         </is>
       </c>
       <c r="E229" s="0" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D230" s="0" t="inlineStr">
         <is>
-          <t>34867.059999999998</t>
+          <t>34867.06</t>
         </is>
       </c>
       <c r="E230" s="0" t="inlineStr">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="D231" s="0" t="inlineStr">
         <is>
-          <t>433.30000000000001</t>
+          <t>433.3</t>
         </is>
       </c>
       <c r="E231" s="0" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="D232" s="0" t="inlineStr">
         <is>
-          <t>384.75999999999999</t>
+          <t>384.76</t>
         </is>
       </c>
       <c r="E232" s="0" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="D234" s="0" t="inlineStr">
         <is>
-          <t>9450.8299999999999</t>
+          <t>9450.83</t>
         </is>
       </c>
       <c r="E234" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>2458.5799999999999</t>
+          <t>2458.58</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D238" s="0" t="inlineStr">
         <is>
-          <t>327527.59000000003</t>
+          <t>327527.59</t>
         </is>
       </c>
       <c r="E238" s="0" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="D239" s="0" t="inlineStr">
         <is>
-          <t>121.43000000000001</t>
+          <t>121.43</t>
         </is>
       </c>
       <c r="E239" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>8.9000000000000004</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="D247" s="0" t="inlineStr">
         <is>
-          <t>1.3799999999999999</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E247" s="0" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="D248" s="0" t="inlineStr">
         <is>
-          <t>3558.0500000000002</t>
+          <t>3558.05</t>
         </is>
       </c>
       <c r="E248" s="0" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="D249" s="0" t="inlineStr">
         <is>
-          <t>572.50999999999999</t>
+          <t>572.51</t>
         </is>
       </c>
       <c r="E249" s="0" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D250" s="0" t="inlineStr">
         <is>
-          <t>213555.01000000001</t>
+          <t>213555.01</t>
         </is>
       </c>
       <c r="E250" s="0" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="D255" s="0" t="inlineStr">
         <is>
-          <t>31091.720000000001</t>
+          <t>31091.72</t>
         </is>
       </c>
       <c r="E255" s="0" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="D257" s="0" t="inlineStr">
         <is>
-          <t>26025.540000000001</t>
+          <t>26025.54</t>
         </is>
       </c>
       <c r="E257" s="0" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D258" s="0" t="inlineStr">
         <is>
-          <t>25616.259999999998</t>
+          <t>25616.26</t>
         </is>
       </c>
       <c r="E258" s="0" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="D262" s="0" t="inlineStr">
         <is>
-          <t>763.42999999999995</t>
+          <t>763.43</t>
         </is>
       </c>
       <c r="E262" s="0" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="D265" s="0" t="inlineStr">
         <is>
-          <t>1142.0599999999999</t>
+          <t>1142.06</t>
         </is>
       </c>
       <c r="E265" s="0" t="inlineStr">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="D267" s="0" t="inlineStr">
         <is>
-          <t>5421.3699999999999</t>
+          <t>5421.37</t>
         </is>
       </c>
       <c r="E267" s="0" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="D273" s="0" t="inlineStr">
         <is>
-          <t>6.6600000000000001</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E273" s="0" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="D275" s="0" t="inlineStr">
         <is>
-          <t>59.710000000000001</t>
+          <t>59.71</t>
         </is>
       </c>
       <c r="E275" s="0" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="D283" s="0" t="inlineStr">
         <is>
-          <t>317.44999999999999</t>
+          <t>317.45</t>
         </is>
       </c>
       <c r="E283" s="0" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="D288" s="0" t="inlineStr">
         <is>
-          <t>18920.169999999998</t>
+          <t>18920.17</t>
         </is>
       </c>
       <c r="E288" s="0" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="D290" s="0" t="inlineStr">
         <is>
-          <t>8.8900000000000006</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E290" s="0" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="D291" s="0" t="inlineStr">
         <is>
-          <t>17747.310000000001</t>
+          <t>17747.31</t>
         </is>
       </c>
       <c r="E291" s="0" t="inlineStr">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="D293" s="0" t="inlineStr">
         <is>
-          <t>529.69000000000005</t>
+          <t>529.69</t>
         </is>
       </c>
       <c r="E293" s="0" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D294" s="0" t="inlineStr">
         <is>
-          <t>80.099999999999994</t>
+          <t>80.1</t>
         </is>
       </c>
       <c r="E294" s="0" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>588599.30000000005</t>
+          <t>588599.3</t>
         </is>
       </c>
       <c r="E297" s="0" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="D309" s="0" t="inlineStr">
         <is>
-          <t>33.369999999999997</t>
+          <t>33.37</t>
         </is>
       </c>
       <c r="E309" s="0" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="D312" s="0" t="inlineStr">
         <is>
-          <t>92379.600000000006</t>
+          <t>92379.6</t>
         </is>
       </c>
       <c r="E312" s="0" t="inlineStr">
@@ -8947,7 +8947,7 @@
       </c>
       <c r="D318" s="0" t="inlineStr">
         <is>
-          <t>66.739999999999995</t>
+          <t>66.74</t>
         </is>
       </c>
       <c r="E318" s="0" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="D327" s="0" t="inlineStr">
         <is>
-          <t>165386.29999999999</t>
+          <t>165386.3</t>
         </is>
       </c>
       <c r="E327" s="0" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t>1365139.8100000001</t>
+          <t>1365139.81</t>
         </is>
       </c>
       <c r="E330" s="0" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D334" s="0" t="inlineStr">
         <is>
-          <t>320084.34000000003</t>
+          <t>320084.34</t>
         </is>
       </c>
       <c r="E334" s="0" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="D341" s="0" t="inlineStr">
         <is>
-          <t>106.01000000000001</t>
+          <t>106.01</t>
         </is>
       </c>
       <c r="E341" s="0" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="D365" s="0" t="inlineStr">
         <is>
-          <t>9066.1100000000006</t>
+          <t>9066.11</t>
         </is>
       </c>
       <c r="E365" s="0" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>38269.360000000001</t>
+          <t>38269.36</t>
         </is>
       </c>
       <c r="E370" s="0" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="D371" s="0" t="inlineStr">
         <is>
-          <t>96.109999999999999</t>
+          <t>96.11</t>
         </is>
       </c>
       <c r="E371" s="0" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>182238.89000000001</t>
+          <t>182238.89</t>
         </is>
       </c>
       <c r="E373" s="0" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="D374" s="0" t="inlineStr">
         <is>
-          <t>8704.5599999999995</t>
+          <t>8704.56</t>
         </is>
       </c>
       <c r="E374" s="0" t="inlineStr">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="D383" s="0" t="inlineStr">
         <is>
-          <t>220209.54999999999</t>
+          <t>220209.55</t>
         </is>
       </c>
       <c r="E383" s="0" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="D426" s="0" t="inlineStr">
         <is>
-          <t>0.32000000000000001</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E426" s="0" t="inlineStr">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="D432" s="0" t="inlineStr">
         <is>
-          <t>2.9999999999999999E-2</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E432" s="0" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="D445" s="0" t="inlineStr">
         <is>
-          <t>13461.280000000001</t>
+          <t>13461.28</t>
         </is>
       </c>
       <c r="E445" s="0" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="D461" s="0" t="inlineStr">
         <is>
-          <t>2412.2399999999998</t>
+          <t>2412.24</t>
         </is>
       </c>
       <c r="E461" s="0" t="inlineStr">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="D463" s="0" t="inlineStr">
         <is>
-          <t>404.07999999999998</t>
+          <t>404.08</t>
         </is>
       </c>
       <c r="E463" s="0" t="inlineStr">
@@ -13969,7 +13969,7 @@
       </c>
       <c r="D504" s="0" t="inlineStr">
         <is>
-          <t>5185.1999999999998</t>
+          <t>5185.2</t>
         </is>
       </c>
       <c r="E504" s="0" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="D505" s="0" t="inlineStr">
         <is>
-          <t>174458.64999999999</t>
+          <t>174458.65</t>
         </is>
       </c>
       <c r="E505" s="0" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="D507" s="0" t="inlineStr">
         <is>
-          <t>4521.6400000000003</t>
+          <t>4521.64</t>
         </is>
       </c>
       <c r="E507" s="0" t="inlineStr">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="D512" s="0" t="inlineStr">
         <is>
-          <t>89735.369999999995</t>
+          <t>89735.37</t>
         </is>
       </c>
       <c r="E512" s="0" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="D515" s="0" t="inlineStr">
         <is>
-          <t>2505.9899999999998</t>
+          <t>2505.99</t>
         </is>
       </c>
       <c r="E515" s="0" t="inlineStr">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="D516" s="0" t="inlineStr">
         <is>
-          <t>270.16000000000003</t>
+          <t>270.16</t>
         </is>
       </c>
       <c r="E516" s="0" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="D521" s="0" t="inlineStr">
         <is>
-          <t>552.22000000000003</t>
+          <t>552.22</t>
         </is>
       </c>
       <c r="E521" s="0" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="D522" s="0" t="inlineStr">
         <is>
-          <t>5274.7299999999996</t>
+          <t>5274.73</t>
         </is>
       </c>
       <c r="E522" s="0" t="inlineStr">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="D543" s="0" t="inlineStr">
         <is>
-          <t>1859.3699999999999</t>
+          <t>1859.37</t>
         </is>
       </c>
       <c r="E543" s="0" t="inlineStr">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="D551" s="0" t="inlineStr">
         <is>
-          <t>37271.019999999997</t>
+          <t>37271.02</t>
         </is>
       </c>
       <c r="E551" s="0" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="D553" s="0" t="inlineStr">
         <is>
-          <t>64600.110000000001</t>
+          <t>64600.11</t>
         </is>
       </c>
       <c r="E553" s="0" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="D557" s="0" t="inlineStr">
         <is>
-          <t>175167.60000000001</t>
+          <t>175167.6</t>
         </is>
       </c>
       <c r="E557" s="0" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="D575" s="0" t="inlineStr">
         <is>
-          <t>616392.45999999996</t>
+          <t>616392.46</t>
         </is>
       </c>
       <c r="E575" s="0" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="D576" s="0" t="inlineStr">
         <is>
-          <t>4.0099999999999998</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E576" s="0" t="inlineStr">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="D585" s="0" t="inlineStr">
         <is>
-          <t>54.560000000000002</t>
+          <t>54.56</t>
         </is>
       </c>
       <c r="E585" s="0" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="D590" s="0" t="inlineStr">
         <is>
-          <t>2721.1100000000001</t>
+          <t>2721.11</t>
         </is>
       </c>
       <c r="E590" s="0" t="inlineStr">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="D593" s="0" t="inlineStr">
         <is>
-          <t>36985.779999999999</t>
+          <t>36985.78</t>
         </is>
       </c>
       <c r="E593" s="0" t="inlineStr">
@@ -16426,7 +16426,7 @@
       </c>
       <c r="D595" s="0" t="inlineStr">
         <is>
-          <t>65540.380000000005</t>
+          <t>65540.38</t>
         </is>
       </c>
       <c r="E595" s="0" t="inlineStr">
@@ -16939,7 +16939,7 @@
       </c>
       <c r="D614" s="0" t="inlineStr">
         <is>
-          <t>1469.5999999999999</t>
+          <t>1469.6</t>
         </is>
       </c>
       <c r="E614" s="0" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="D621" s="0" t="inlineStr">
         <is>
-          <t>699.48000000000002</t>
+          <t>699.48</t>
         </is>
       </c>
       <c r="E621" s="0" t="inlineStr">
@@ -17398,7 +17398,7 @@
       </c>
       <c r="D631" s="0" t="inlineStr">
         <is>
-          <t>2284.4000000000001</t>
+          <t>2284.4</t>
         </is>
       </c>
       <c r="E631" s="0" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="D640" s="0" t="inlineStr">
         <is>
-          <t>19.640000000000001</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="E640" s="0" t="inlineStr">
@@ -17668,7 +17668,7 @@
       </c>
       <c r="D641" s="0" t="inlineStr">
         <is>
-          <t>893.13999999999999</t>
+          <t>893.14</t>
         </is>
       </c>
       <c r="E641" s="0" t="inlineStr">
@@ -18235,7 +18235,7 @@
       </c>
       <c r="D662" s="0" t="inlineStr">
         <is>
-          <t>2431.5700000000002</t>
+          <t>2431.57</t>
         </is>
       </c>
       <c r="E662" s="0" t="inlineStr">
@@ -18262,7 +18262,7 @@
       </c>
       <c r="D663" s="0" t="inlineStr">
         <is>
-          <t>5388.9700000000003</t>
+          <t>5388.97</t>
         </is>
       </c>
       <c r="E663" s="0" t="inlineStr">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="D666" s="0" t="inlineStr">
         <is>
-          <t>115.20999999999999</t>
+          <t>115.21</t>
         </is>
       </c>
       <c r="E666" s="0" t="inlineStr">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="D681" s="0" t="inlineStr">
         <is>
-          <t>3877.3899999999999</t>
+          <t>3877.39</t>
         </is>
       </c>
       <c r="E681" s="0" t="inlineStr">
